--- a/lab2/words.xlsx
+++ b/lab2/words.xlsx
@@ -290,7 +290,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A25"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/lab2/words.xlsx
+++ b/lab2/words.xlsx
@@ -20,81 +20,315 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
   <si>
     <t xml:space="preserve">HYPONYM</t>
   </si>
   <si>
+    <t xml:space="preserve">HYPERONYM</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГЕККОН</t>
   </si>
   <si>
+    <t xml:space="preserve">ящерица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чешуйчатый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пресмыкающиеся</t>
+  </si>
+  <si>
+    <t xml:space="preserve">животное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рептилия</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГЕЛЬ</t>
   </si>
   <si>
+    <t xml:space="preserve">желеобразное вещество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">косметика</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГЕОРГИН</t>
   </si>
   <si>
+    <t xml:space="preserve">растение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сложноцветный цветок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">трава</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зелень</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГЕОФАК</t>
   </si>
   <si>
+    <t xml:space="preserve">факультет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">направление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">специальность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">структурное подразделение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">департамент</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГЕРИАТРИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">геронтология</t>
+  </si>
+  <si>
+    <t xml:space="preserve">наука</t>
+  </si>
+  <si>
+    <t xml:space="preserve">изучение болезней</t>
+  </si>
+  <si>
+    <t xml:space="preserve">знание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лечение</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГЕРМАНИЗАЦИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">распространение языка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">распространения культуры</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГЕРМЕТИК</t>
   </si>
   <si>
+    <t xml:space="preserve">паста</t>
+  </si>
+  <si>
+    <t xml:space="preserve">материал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">смазка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">замазка</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГЕРОНТОЛОГ</t>
   </si>
   <si>
+    <t xml:space="preserve">врач</t>
+  </si>
+  <si>
+    <t xml:space="preserve">специалист</t>
+  </si>
+  <si>
+    <t xml:space="preserve">доктор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">человек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">профессия</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГЕСТАПОВЕЦ</t>
   </si>
   <si>
+    <t xml:space="preserve">сотрудник гестапо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тайная военная полиция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эсэсовец</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИГИЕНИСТ</t>
   </si>
   <si>
     <t xml:space="preserve">ГИДРАТАЦИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">сольватация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">соединение</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИДРИД</t>
   </si>
   <si>
+    <t xml:space="preserve">соединение водорода с металлами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">химический элемент</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИДРОЛИЗ</t>
   </si>
   <si>
+    <t xml:space="preserve">разложение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сольволиз</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИДРОПОНИКА</t>
   </si>
   <si>
+    <t xml:space="preserve">рост</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выращивание растений</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИДРОЦИКЛ</t>
   </si>
   <si>
+    <t xml:space="preserve">транспорт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мотоцикл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аквабайк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">авто</t>
+  </si>
+  <si>
+    <t xml:space="preserve">водные лыжи</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИПЕРБОЛА</t>
   </si>
   <si>
+    <t xml:space="preserve">график</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кривая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">геометрия</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИПЕРКАР</t>
   </si>
   <si>
+    <t xml:space="preserve">машина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">суперкар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">средство передвижения</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИПЕРРЕАЛИЗМ</t>
   </si>
   <si>
+    <t xml:space="preserve">направление в исскустве</t>
+  </si>
+  <si>
+    <t xml:space="preserve">современное исскуство</t>
+  </si>
+  <si>
+    <t xml:space="preserve">исскуство</t>
+  </si>
+  <si>
+    <t xml:space="preserve">натурализм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">живопись</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИПЕРТЕРМИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">перегревание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">повышение температуры тела</t>
+  </si>
+  <si>
+    <t xml:space="preserve">накопление тепла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">терапия</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИПЕРТРОФИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">увеличение органа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рост органа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">болезнь</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИПОТОНИК</t>
   </si>
   <si>
+    <t xml:space="preserve">больной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пациент</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИПЮР</t>
   </si>
   <si>
+    <t xml:space="preserve">ткань</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кружева</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИРЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">спорт товар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">предмет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">металлический груз</t>
+  </si>
+  <si>
     <t xml:space="preserve">ГИЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шлюпка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">судно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лодка</t>
   </si>
 </sst>
 </file>
@@ -193,7 +427,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,6 +442,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -287,141 +525,447 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>99</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
